--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1206.631180.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1206.631180.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB9C58DE-D95E-42D1-BB9C-FD0F3002B8DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11AD5ABC-5559-4CE2-8A3E-8829A1234E2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T071400.437" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T072547.004" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="74">
   <si>
     <t>Do Ty</t>
   </si>
@@ -725,9 +725,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1083,7 +1084,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ47"/>
+  <dimension ref="A1:AZ74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6120,49 +6121,3181 @@
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>24001193</v>
+      </c>
+      <c r="D44">
+        <v>1206</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45341</v>
+      </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G44">
-        <v>343.88</v>
+        <v>3.48</v>
       </c>
       <c r="H44">
-        <v>343.88</v>
+        <v>3.48</v>
+      </c>
+      <c r="I44" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44" t="s">
+        <v>57</v>
+      </c>
+      <c r="T44" t="s">
+        <v>58</v>
+      </c>
+      <c r="U44" t="s">
+        <v>59</v>
+      </c>
+      <c r="V44" t="s">
+        <v>60</v>
+      </c>
+      <c r="W44" t="s">
+        <v>61</v>
+      </c>
+      <c r="X44">
+        <v>2104323</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA44">
+        <v>2</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>56</v>
       </c>
       <c r="AG44">
-        <v>963</v>
+        <v>2</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP44">
+        <v>1206</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR44">
+        <v>276660</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY44">
+        <v>631180</v>
+      </c>
+      <c r="AZ44">
+        <v>1206.6311800000001</v>
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>24001194</v>
+      </c>
+      <c r="D45">
+        <v>1206</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45341</v>
+      </c>
       <c r="F45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G45">
-        <v>343.88</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="H45">
-        <v>343.88</v>
+        <v>16.989999999999998</v>
+      </c>
+      <c r="I45" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>56</v>
+      </c>
+      <c r="R45" t="s">
+        <v>57</v>
+      </c>
+      <c r="T45" t="s">
+        <v>58</v>
+      </c>
+      <c r="U45" t="s">
+        <v>59</v>
+      </c>
+      <c r="V45" t="s">
+        <v>60</v>
+      </c>
+      <c r="W45" t="s">
+        <v>61</v>
+      </c>
+      <c r="X45">
+        <v>2104330</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA45">
+        <v>4</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>56</v>
       </c>
       <c r="AG45">
-        <v>963</v>
+        <v>37</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP45">
+        <v>1206</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR45">
+        <v>220249</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY45">
+        <v>631180</v>
+      </c>
+      <c r="AZ45">
+        <v>1206.6311800000001</v>
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>24001194</v>
+      </c>
+      <c r="D46">
+        <v>1206</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45341</v>
+      </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G46">
-        <v>343.88</v>
+        <v>30.55</v>
       </c>
       <c r="H46">
-        <v>343.88</v>
+        <v>30.55</v>
+      </c>
+      <c r="I46" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>56</v>
+      </c>
+      <c r="R46" t="s">
+        <v>57</v>
+      </c>
+      <c r="T46" t="s">
+        <v>58</v>
+      </c>
+      <c r="U46" t="s">
+        <v>59</v>
+      </c>
+      <c r="V46" t="s">
+        <v>60</v>
+      </c>
+      <c r="W46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X46">
+        <v>2104330</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA46">
+        <v>6</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>56</v>
       </c>
       <c r="AG46">
-        <v>963</v>
+        <v>180</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP46">
+        <v>1206</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR46">
+        <v>79293</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY46">
+        <v>631180</v>
+      </c>
+      <c r="AZ46">
+        <v>1206.6311800000001</v>
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>24001194</v>
+      </c>
+      <c r="D47">
+        <v>1206</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45341</v>
+      </c>
       <c r="F47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47">
+        <v>37.14</v>
+      </c>
+      <c r="H47">
+        <v>37.14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47" t="s">
+        <v>57</v>
+      </c>
+      <c r="T47" t="s">
+        <v>58</v>
+      </c>
+      <c r="U47" t="s">
+        <v>59</v>
+      </c>
+      <c r="V47" t="s">
+        <v>60</v>
+      </c>
+      <c r="W47" t="s">
+        <v>61</v>
+      </c>
+      <c r="X47">
+        <v>2104330</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA47">
+        <v>8</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG47">
+        <v>25</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP47">
+        <v>1206</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR47">
+        <v>149711</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY47">
+        <v>631180</v>
+      </c>
+      <c r="AZ47">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>24001194</v>
+      </c>
+      <c r="D48">
+        <v>1206</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48">
+        <v>39.32</v>
+      </c>
+      <c r="H48">
+        <v>39.32</v>
+      </c>
+      <c r="I48" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>56</v>
+      </c>
+      <c r="R48" t="s">
+        <v>57</v>
+      </c>
+      <c r="T48" t="s">
+        <v>58</v>
+      </c>
+      <c r="U48" t="s">
+        <v>59</v>
+      </c>
+      <c r="V48" t="s">
+        <v>60</v>
+      </c>
+      <c r="W48" t="s">
+        <v>61</v>
+      </c>
+      <c r="X48">
+        <v>2104330</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA48">
+        <v>2</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG48">
+        <v>63</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP48">
+        <v>1206</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR48">
+        <v>253820</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY48">
+        <v>631180</v>
+      </c>
+      <c r="AZ48">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>24001195</v>
+      </c>
+      <c r="D49">
+        <v>1206</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49">
+        <v>1.4</v>
+      </c>
+      <c r="H49">
+        <v>1.4</v>
+      </c>
+      <c r="I49" t="s">
+        <v>55</v>
+      </c>
+      <c r="O49" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>56</v>
+      </c>
+      <c r="R49" t="s">
+        <v>57</v>
+      </c>
+      <c r="T49" t="s">
+        <v>58</v>
+      </c>
+      <c r="U49" t="s">
+        <v>59</v>
+      </c>
+      <c r="V49" t="s">
+        <v>60</v>
+      </c>
+      <c r="W49" t="s">
+        <v>61</v>
+      </c>
+      <c r="X49">
+        <v>2104335</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA49">
+        <v>2</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG49">
+        <v>9</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP49">
+        <v>1206</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR49">
+        <v>79248</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY49">
+        <v>631180</v>
+      </c>
+      <c r="AZ49">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>24001196</v>
+      </c>
+      <c r="D50">
+        <v>1206</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50">
+        <v>0.92</v>
+      </c>
+      <c r="H50">
+        <v>0.92</v>
+      </c>
+      <c r="I50" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>56</v>
+      </c>
+      <c r="R50" t="s">
+        <v>57</v>
+      </c>
+      <c r="T50" t="s">
+        <v>58</v>
+      </c>
+      <c r="U50" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" t="s">
+        <v>60</v>
+      </c>
+      <c r="W50" t="s">
+        <v>61</v>
+      </c>
+      <c r="X50">
+        <v>2104337</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA50">
+        <v>2</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG50">
+        <v>3</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP50">
+        <v>1206</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR50">
+        <v>76741</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY50">
+        <v>631180</v>
+      </c>
+      <c r="AZ50">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>24001197</v>
+      </c>
+      <c r="D51">
+        <v>1206</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F51" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51">
+        <v>11.88</v>
+      </c>
+      <c r="H51">
+        <v>11.88</v>
+      </c>
+      <c r="I51" t="s">
+        <v>55</v>
+      </c>
+      <c r="O51" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51" t="s">
+        <v>57</v>
+      </c>
+      <c r="T51" t="s">
+        <v>58</v>
+      </c>
+      <c r="U51" t="s">
+        <v>59</v>
+      </c>
+      <c r="V51" t="s">
+        <v>60</v>
+      </c>
+      <c r="W51" t="s">
+        <v>61</v>
+      </c>
+      <c r="X51">
+        <v>2104340</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA51">
+        <v>2</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG51">
+        <v>30</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP51">
+        <v>1206</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR51">
+        <v>79280</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY51">
+        <v>631180</v>
+      </c>
+      <c r="AZ51">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>24001198</v>
+      </c>
+      <c r="D52">
+        <v>1206</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F52" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H52">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I52" t="s">
+        <v>55</v>
+      </c>
+      <c r="O52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>56</v>
+      </c>
+      <c r="R52" t="s">
+        <v>57</v>
+      </c>
+      <c r="T52" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" t="s">
+        <v>59</v>
+      </c>
+      <c r="V52" t="s">
+        <v>60</v>
+      </c>
+      <c r="W52" t="s">
+        <v>61</v>
+      </c>
+      <c r="X52">
+        <v>2104341</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA52">
+        <v>2</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG52">
+        <v>13</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP52">
+        <v>1206</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR52">
+        <v>79248</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY52">
+        <v>631180</v>
+      </c>
+      <c r="AZ52">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>24001199</v>
+      </c>
+      <c r="D53">
+        <v>1206</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F53" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53">
+        <v>3.99</v>
+      </c>
+      <c r="H53">
+        <v>3.99</v>
+      </c>
+      <c r="I53" t="s">
+        <v>55</v>
+      </c>
+      <c r="O53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53" t="s">
+        <v>57</v>
+      </c>
+      <c r="T53" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" t="s">
+        <v>60</v>
+      </c>
+      <c r="W53" t="s">
+        <v>61</v>
+      </c>
+      <c r="X53">
+        <v>2104342</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA53">
+        <v>2</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG53">
+        <v>13</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP53">
+        <v>1206</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR53">
+        <v>76741</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY53">
+        <v>631180</v>
+      </c>
+      <c r="AZ53">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>24001200</v>
+      </c>
+      <c r="D54">
+        <v>1206</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54">
+        <v>2.38</v>
+      </c>
+      <c r="H54">
+        <v>2.38</v>
+      </c>
+      <c r="I54" t="s">
+        <v>55</v>
+      </c>
+      <c r="O54" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>56</v>
+      </c>
+      <c r="R54" t="s">
+        <v>57</v>
+      </c>
+      <c r="T54" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" t="s">
+        <v>59</v>
+      </c>
+      <c r="V54" t="s">
+        <v>60</v>
+      </c>
+      <c r="W54" t="s">
+        <v>61</v>
+      </c>
+      <c r="X54">
+        <v>2104343</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA54">
+        <v>2</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG54">
+        <v>6</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP54">
+        <v>1206</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR54">
+        <v>79280</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY54">
+        <v>631180</v>
+      </c>
+      <c r="AZ54">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>24001220</v>
+      </c>
+      <c r="D55">
+        <v>1206</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55">
+        <v>26.22</v>
+      </c>
+      <c r="H55">
+        <v>26.22</v>
+      </c>
+      <c r="I55" t="s">
+        <v>55</v>
+      </c>
+      <c r="O55" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>56</v>
+      </c>
+      <c r="R55" t="s">
+        <v>57</v>
+      </c>
+      <c r="T55" t="s">
+        <v>58</v>
+      </c>
+      <c r="U55" t="s">
+        <v>59</v>
+      </c>
+      <c r="V55" t="s">
+        <v>60</v>
+      </c>
+      <c r="W55" t="s">
+        <v>61</v>
+      </c>
+      <c r="X55">
+        <v>2105363</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA55">
+        <v>2</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG55">
+        <v>42</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP55">
+        <v>1206</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR55">
+        <v>253820</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY55">
+        <v>631180</v>
+      </c>
+      <c r="AZ55">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <v>24001220</v>
+      </c>
+      <c r="D56">
+        <v>1206</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56">
+        <v>17.45</v>
+      </c>
+      <c r="H56">
+        <v>17.45</v>
+      </c>
+      <c r="I56" t="s">
+        <v>55</v>
+      </c>
+      <c r="O56" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>56</v>
+      </c>
+      <c r="R56" t="s">
+        <v>57</v>
+      </c>
+      <c r="T56" t="s">
+        <v>58</v>
+      </c>
+      <c r="U56" t="s">
+        <v>59</v>
+      </c>
+      <c r="V56" t="s">
+        <v>60</v>
+      </c>
+      <c r="W56" t="s">
+        <v>61</v>
+      </c>
+      <c r="X56">
+        <v>2105363</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA56">
+        <v>4</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG56">
+        <v>38</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP56">
+        <v>1206</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR56">
+        <v>220249</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY56">
+        <v>631180</v>
+      </c>
+      <c r="AZ56">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57">
+        <v>24001220</v>
+      </c>
+      <c r="D57">
+        <v>1206</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F57" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57">
+        <v>30.55</v>
+      </c>
+      <c r="H57">
+        <v>30.55</v>
+      </c>
+      <c r="I57" t="s">
+        <v>55</v>
+      </c>
+      <c r="O57" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>56</v>
+      </c>
+      <c r="R57" t="s">
+        <v>57</v>
+      </c>
+      <c r="T57" t="s">
+        <v>58</v>
+      </c>
+      <c r="U57" t="s">
+        <v>59</v>
+      </c>
+      <c r="V57" t="s">
+        <v>60</v>
+      </c>
+      <c r="W57" t="s">
+        <v>61</v>
+      </c>
+      <c r="X57">
+        <v>2105363</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA57">
+        <v>6</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG57">
+        <v>180</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP57">
+        <v>1206</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR57">
+        <v>79293</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY57">
+        <v>631180</v>
+      </c>
+      <c r="AZ57">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58">
+        <v>24001210</v>
+      </c>
+      <c r="D58">
+        <v>1206</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58">
+        <v>1.19</v>
+      </c>
+      <c r="H58">
+        <v>1.19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>55</v>
+      </c>
+      <c r="O58" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>56</v>
+      </c>
+      <c r="R58" t="s">
+        <v>57</v>
+      </c>
+      <c r="T58" t="s">
+        <v>58</v>
+      </c>
+      <c r="U58" t="s">
+        <v>59</v>
+      </c>
+      <c r="V58" t="s">
+        <v>60</v>
+      </c>
+      <c r="W58" t="s">
+        <v>61</v>
+      </c>
+      <c r="X58">
+        <v>2105177</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA58">
+        <v>2</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG58">
+        <v>3</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP58">
+        <v>1206</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR58">
+        <v>79280</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY58">
+        <v>631180</v>
+      </c>
+      <c r="AZ58">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59">
+        <v>24001211</v>
+      </c>
+      <c r="D59">
+        <v>1206</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F59" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59">
+        <v>0.61</v>
+      </c>
+      <c r="H59">
+        <v>0.61</v>
+      </c>
+      <c r="I59" t="s">
+        <v>55</v>
+      </c>
+      <c r="O59" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>56</v>
+      </c>
+      <c r="R59" t="s">
+        <v>57</v>
+      </c>
+      <c r="T59" t="s">
+        <v>58</v>
+      </c>
+      <c r="U59" t="s">
+        <v>59</v>
+      </c>
+      <c r="V59" t="s">
+        <v>60</v>
+      </c>
+      <c r="W59" t="s">
+        <v>61</v>
+      </c>
+      <c r="X59">
+        <v>2105178</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA59">
+        <v>2</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG59">
+        <v>2</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP59">
+        <v>1206</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR59">
+        <v>76741</v>
+      </c>
+      <c r="AU59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY59">
+        <v>631180</v>
+      </c>
+      <c r="AZ59">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60">
+        <v>24001221</v>
+      </c>
+      <c r="D60">
+        <v>1206</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F60" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60">
+        <v>13.11</v>
+      </c>
+      <c r="H60">
+        <v>13.11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>55</v>
+      </c>
+      <c r="O60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>56</v>
+      </c>
+      <c r="R60" t="s">
+        <v>57</v>
+      </c>
+      <c r="T60" t="s">
+        <v>58</v>
+      </c>
+      <c r="U60" t="s">
+        <v>59</v>
+      </c>
+      <c r="V60" t="s">
+        <v>60</v>
+      </c>
+      <c r="W60" t="s">
+        <v>61</v>
+      </c>
+      <c r="X60">
+        <v>2105365</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA60">
+        <v>2</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG60">
+        <v>21</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP60">
+        <v>1206</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR60">
+        <v>253820</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY60">
+        <v>631180</v>
+      </c>
+      <c r="AZ60">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61">
+        <v>24001221</v>
+      </c>
+      <c r="D61">
+        <v>1206</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="H61">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>56</v>
+      </c>
+      <c r="R61" t="s">
+        <v>57</v>
+      </c>
+      <c r="T61" t="s">
+        <v>58</v>
+      </c>
+      <c r="U61" t="s">
+        <v>59</v>
+      </c>
+      <c r="V61" t="s">
+        <v>60</v>
+      </c>
+      <c r="W61" t="s">
+        <v>61</v>
+      </c>
+      <c r="X61">
+        <v>2105365</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA61">
+        <v>4</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG61">
+        <v>19</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP61">
+        <v>1206</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR61">
+        <v>220249</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY61">
+        <v>631180</v>
+      </c>
+      <c r="AZ61">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62">
+        <v>24001212</v>
+      </c>
+      <c r="D62">
+        <v>1206</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62">
+        <v>0.78</v>
+      </c>
+      <c r="H62">
+        <v>0.78</v>
+      </c>
+      <c r="I62" t="s">
+        <v>55</v>
+      </c>
+      <c r="O62" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>56</v>
+      </c>
+      <c r="R62" t="s">
+        <v>57</v>
+      </c>
+      <c r="T62" t="s">
+        <v>58</v>
+      </c>
+      <c r="U62" t="s">
+        <v>59</v>
+      </c>
+      <c r="V62" t="s">
+        <v>60</v>
+      </c>
+      <c r="W62" t="s">
+        <v>61</v>
+      </c>
+      <c r="X62">
+        <v>2105179</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA62">
+        <v>2</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG62">
+        <v>5</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP62">
+        <v>1206</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR62">
+        <v>79248</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY62">
+        <v>631180</v>
+      </c>
+      <c r="AZ62">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63">
+        <v>24001213</v>
+      </c>
+      <c r="D63">
+        <v>1206</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63">
+        <v>0.92</v>
+      </c>
+      <c r="H63">
+        <v>0.92</v>
+      </c>
+      <c r="I63" t="s">
+        <v>55</v>
+      </c>
+      <c r="O63" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>56</v>
+      </c>
+      <c r="R63" t="s">
+        <v>57</v>
+      </c>
+      <c r="T63" t="s">
+        <v>58</v>
+      </c>
+      <c r="U63" t="s">
+        <v>59</v>
+      </c>
+      <c r="V63" t="s">
+        <v>60</v>
+      </c>
+      <c r="W63" t="s">
+        <v>61</v>
+      </c>
+      <c r="X63">
+        <v>2105180</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA63">
+        <v>2</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG63">
+        <v>3</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP63">
+        <v>1206</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR63">
+        <v>76741</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY63">
+        <v>631180</v>
+      </c>
+      <c r="AZ63">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64">
+        <v>24001214</v>
+      </c>
+      <c r="D64">
+        <v>1206</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F64" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64">
+        <v>13.07</v>
+      </c>
+      <c r="H64">
+        <v>13.07</v>
+      </c>
+      <c r="I64" t="s">
+        <v>55</v>
+      </c>
+      <c r="O64" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>56</v>
+      </c>
+      <c r="R64" t="s">
+        <v>57</v>
+      </c>
+      <c r="T64" t="s">
+        <v>58</v>
+      </c>
+      <c r="U64" t="s">
+        <v>59</v>
+      </c>
+      <c r="V64" t="s">
+        <v>60</v>
+      </c>
+      <c r="W64" t="s">
+        <v>61</v>
+      </c>
+      <c r="X64">
+        <v>2105182</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA64">
+        <v>2</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG64">
+        <v>33</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP64">
+        <v>1206</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR64">
+        <v>79280</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY64">
+        <v>631180</v>
+      </c>
+      <c r="AZ64">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65">
+        <v>24001222</v>
+      </c>
+      <c r="D65">
+        <v>1206</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F65" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="H65">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I65" t="s">
+        <v>55</v>
+      </c>
+      <c r="O65" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>56</v>
+      </c>
+      <c r="R65" t="s">
+        <v>57</v>
+      </c>
+      <c r="T65" t="s">
+        <v>58</v>
+      </c>
+      <c r="U65" t="s">
+        <v>59</v>
+      </c>
+      <c r="V65" t="s">
+        <v>60</v>
+      </c>
+      <c r="W65" t="s">
+        <v>61</v>
+      </c>
+      <c r="X65">
+        <v>2105366</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA65">
+        <v>2</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG65">
+        <v>19</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM65" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP65">
+        <v>1206</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR65">
+        <v>220249</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY65">
+        <v>631180</v>
+      </c>
+      <c r="AZ65">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66">
+        <v>24001222</v>
+      </c>
+      <c r="D66">
+        <v>1206</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66">
+        <v>15.27</v>
+      </c>
+      <c r="H66">
+        <v>15.27</v>
+      </c>
+      <c r="I66" t="s">
+        <v>55</v>
+      </c>
+      <c r="O66" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>56</v>
+      </c>
+      <c r="R66" t="s">
+        <v>57</v>
+      </c>
+      <c r="T66" t="s">
+        <v>58</v>
+      </c>
+      <c r="U66" t="s">
+        <v>59</v>
+      </c>
+      <c r="V66" t="s">
+        <v>60</v>
+      </c>
+      <c r="W66" t="s">
+        <v>61</v>
+      </c>
+      <c r="X66">
+        <v>2105366</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA66">
+        <v>4</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG66">
+        <v>90</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP66">
+        <v>1206</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR66">
+        <v>79293</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY66">
+        <v>631180</v>
+      </c>
+      <c r="AZ66">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67">
+        <v>24001223</v>
+      </c>
+      <c r="D67">
+        <v>1206</v>
+      </c>
+      <c r="E67" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F67" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67">
+        <v>13.11</v>
+      </c>
+      <c r="H67">
+        <v>13.11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>55</v>
+      </c>
+      <c r="O67" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>56</v>
+      </c>
+      <c r="R67" t="s">
+        <v>57</v>
+      </c>
+      <c r="T67" t="s">
+        <v>58</v>
+      </c>
+      <c r="U67" t="s">
+        <v>59</v>
+      </c>
+      <c r="V67" t="s">
+        <v>60</v>
+      </c>
+      <c r="W67" t="s">
+        <v>61</v>
+      </c>
+      <c r="X67">
+        <v>2105367</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA67">
+        <v>2</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG67">
+        <v>21</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM67" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO67" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP67">
+        <v>1206</v>
+      </c>
+      <c r="AQ67" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR67">
+        <v>253820</v>
+      </c>
+      <c r="AU67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV67" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY67">
+        <v>631180</v>
+      </c>
+      <c r="AZ67">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68">
+        <v>24001223</v>
+      </c>
+      <c r="D68">
+        <v>1206</v>
+      </c>
+      <c r="E68" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F68" t="s">
+        <v>68</v>
+      </c>
+      <c r="G68">
+        <v>17.45</v>
+      </c>
+      <c r="H68">
+        <v>17.45</v>
+      </c>
+      <c r="I68" t="s">
+        <v>55</v>
+      </c>
+      <c r="O68" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>56</v>
+      </c>
+      <c r="R68" t="s">
+        <v>57</v>
+      </c>
+      <c r="T68" t="s">
+        <v>58</v>
+      </c>
+      <c r="U68" t="s">
+        <v>59</v>
+      </c>
+      <c r="V68" t="s">
+        <v>60</v>
+      </c>
+      <c r="W68" t="s">
+        <v>61</v>
+      </c>
+      <c r="X68">
+        <v>2105367</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA68">
+        <v>4</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG68">
+        <v>38</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM68" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP68">
+        <v>1206</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR68">
+        <v>220249</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY68">
+        <v>631180</v>
+      </c>
+      <c r="AZ68">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69">
+        <v>24001223</v>
+      </c>
+      <c r="D69">
+        <v>1206</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69">
+        <v>15.27</v>
+      </c>
+      <c r="H69">
+        <v>15.27</v>
+      </c>
+      <c r="I69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O69" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>56</v>
+      </c>
+      <c r="R69" t="s">
+        <v>57</v>
+      </c>
+      <c r="T69" t="s">
+        <v>58</v>
+      </c>
+      <c r="U69" t="s">
+        <v>59</v>
+      </c>
+      <c r="V69" t="s">
+        <v>60</v>
+      </c>
+      <c r="W69" t="s">
+        <v>61</v>
+      </c>
+      <c r="X69">
+        <v>2105367</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA69">
+        <v>6</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG69">
+        <v>90</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM69" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP69">
+        <v>1206</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR69">
+        <v>79293</v>
+      </c>
+      <c r="AU69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV69" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY69">
+        <v>631180</v>
+      </c>
+      <c r="AZ69">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70">
+        <v>24001224</v>
+      </c>
+      <c r="D70">
+        <v>1206</v>
+      </c>
+      <c r="E70" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F70" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70">
+        <v>0.47</v>
+      </c>
+      <c r="H70">
+        <v>0.47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>55</v>
+      </c>
+      <c r="O70" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>56</v>
+      </c>
+      <c r="R70" t="s">
+        <v>57</v>
+      </c>
+      <c r="T70" t="s">
+        <v>58</v>
+      </c>
+      <c r="U70" t="s">
+        <v>59</v>
+      </c>
+      <c r="V70" t="s">
+        <v>60</v>
+      </c>
+      <c r="W70" t="s">
+        <v>61</v>
+      </c>
+      <c r="X70">
+        <v>2105369</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA70">
+        <v>2</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG70">
+        <v>3</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM70" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP70">
+        <v>1206</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR70">
+        <v>79248</v>
+      </c>
+      <c r="AU70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY70">
+        <v>631180</v>
+      </c>
+      <c r="AZ70">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>70</v>
+      </c>
+      <c r="G71">
+        <v>676.87</v>
+      </c>
+      <c r="H71">
+        <v>676.87</v>
+      </c>
+      <c r="AG71" s="2">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G72">
+        <v>676.87</v>
+      </c>
+      <c r="H72">
+        <v>676.87</v>
+      </c>
+      <c r="AG72" s="2">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>72</v>
+      </c>
+      <c r="G73">
+        <v>676.87</v>
+      </c>
+      <c r="H73">
+        <v>676.87</v>
+      </c>
+      <c r="AG73" s="2">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
         <v>73</v>
       </c>
     </row>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1206.631180.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1206.631180.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11AD5ABC-5559-4CE2-8A3E-8829A1234E2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FABB128-24D5-436F-A98A-7313715CFB67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T072547.004" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T073038.320" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="74">
   <si>
     <t>Do Ty</t>
   </si>
@@ -1084,7 +1084,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ74"/>
+  <dimension ref="A1:AZ92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1732,10 +1732,10 @@
         <v>68</v>
       </c>
       <c r="G6">
-        <v>12.48</v>
+        <v>9.18</v>
       </c>
       <c r="H6">
-        <v>12.48</v>
+        <v>9.18</v>
       </c>
       <c r="I6" t="s">
         <v>55</v>
@@ -1771,7 +1771,7 @@
         <v>56</v>
       </c>
       <c r="AA6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="s">
         <v>56</v>
@@ -1810,7 +1810,7 @@
         <v>64</v>
       </c>
       <c r="AR6">
-        <v>253820</v>
+        <v>220249</v>
       </c>
       <c r="AU6" t="s">
         <v>56</v>
@@ -1964,10 +1964,10 @@
         <v>68</v>
       </c>
       <c r="G8">
-        <v>9.18</v>
+        <v>37.14</v>
       </c>
       <c r="H8">
-        <v>9.18</v>
+        <v>37.14</v>
       </c>
       <c r="I8" t="s">
         <v>55</v>
@@ -2003,7 +2003,7 @@
         <v>56</v>
       </c>
       <c r="AA8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="s">
         <v>56</v>
@@ -2018,7 +2018,7 @@
         <v>56</v>
       </c>
       <c r="AG8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AH8" t="s">
         <v>56</v>
@@ -2042,7 +2042,7 @@
         <v>64</v>
       </c>
       <c r="AR8">
-        <v>220249</v>
+        <v>149711</v>
       </c>
       <c r="AU8" t="s">
         <v>56</v>
@@ -2080,10 +2080,10 @@
         <v>68</v>
       </c>
       <c r="G9">
-        <v>9.18</v>
+        <v>12.48</v>
       </c>
       <c r="H9">
-        <v>9.18</v>
+        <v>12.48</v>
       </c>
       <c r="I9" t="s">
         <v>55</v>
@@ -2119,7 +2119,7 @@
         <v>56</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AB9" t="s">
         <v>56</v>
@@ -2158,7 +2158,7 @@
         <v>64</v>
       </c>
       <c r="AR9">
-        <v>220249</v>
+        <v>253820</v>
       </c>
       <c r="AU9" t="s">
         <v>56</v>
@@ -2196,10 +2196,10 @@
         <v>68</v>
       </c>
       <c r="G10">
-        <v>37.14</v>
+        <v>9.18</v>
       </c>
       <c r="H10">
-        <v>37.14</v>
+        <v>9.18</v>
       </c>
       <c r="I10" t="s">
         <v>55</v>
@@ -2235,7 +2235,7 @@
         <v>56</v>
       </c>
       <c r="AA10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB10" t="s">
         <v>56</v>
@@ -2250,7 +2250,7 @@
         <v>56</v>
       </c>
       <c r="AG10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="s">
         <v>56</v>
@@ -2274,7 +2274,7 @@
         <v>64</v>
       </c>
       <c r="AR10">
-        <v>149711</v>
+        <v>220249</v>
       </c>
       <c r="AU10" t="s">
         <v>56</v>
@@ -2699,7 +2699,7 @@
         <v>56</v>
       </c>
       <c r="AA14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB14" t="s">
         <v>56</v>
@@ -2815,7 +2815,7 @@
         <v>56</v>
       </c>
       <c r="AA15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB15" t="s">
         <v>56</v>
@@ -2892,10 +2892,10 @@
         <v>68</v>
       </c>
       <c r="G16">
-        <v>9.18</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="H16">
-        <v>9.18</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="I16" t="s">
         <v>55</v>
@@ -2931,7 +2931,7 @@
         <v>56</v>
       </c>
       <c r="AA16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB16" t="s">
         <v>56</v>
@@ -2946,7 +2946,7 @@
         <v>56</v>
       </c>
       <c r="AG16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="s">
         <v>56</v>
@@ -3047,7 +3047,7 @@
         <v>56</v>
       </c>
       <c r="AA17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB17" t="s">
         <v>56</v>
@@ -3124,10 +3124,10 @@
         <v>68</v>
       </c>
       <c r="G18">
-        <v>8.7200000000000006</v>
+        <v>9.18</v>
       </c>
       <c r="H18">
-        <v>8.7200000000000006</v>
+        <v>9.18</v>
       </c>
       <c r="I18" t="s">
         <v>55</v>
@@ -3163,7 +3163,7 @@
         <v>56</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="s">
         <v>56</v>
@@ -3178,7 +3178,7 @@
         <v>56</v>
       </c>
       <c r="AG18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH18" t="s">
         <v>56</v>
@@ -3704,10 +3704,10 @@
         <v>68</v>
       </c>
       <c r="G23">
-        <v>13.11</v>
+        <v>1.74</v>
       </c>
       <c r="H23">
-        <v>13.11</v>
+        <v>1.74</v>
       </c>
       <c r="I23" t="s">
         <v>55</v>
@@ -3743,7 +3743,7 @@
         <v>56</v>
       </c>
       <c r="AA23">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AB23" t="s">
         <v>56</v>
@@ -3758,7 +3758,7 @@
         <v>56</v>
       </c>
       <c r="AG23">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="AH23" t="s">
         <v>56</v>
@@ -3782,7 +3782,7 @@
         <v>64</v>
       </c>
       <c r="AR23">
-        <v>253820</v>
+        <v>264921</v>
       </c>
       <c r="AU23" t="s">
         <v>56</v>
@@ -3820,10 +3820,10 @@
         <v>68</v>
       </c>
       <c r="G24">
-        <v>8.7200000000000006</v>
+        <v>37.14</v>
       </c>
       <c r="H24">
-        <v>8.7200000000000006</v>
+        <v>37.14</v>
       </c>
       <c r="I24" t="s">
         <v>55</v>
@@ -3859,7 +3859,7 @@
         <v>56</v>
       </c>
       <c r="AA24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB24" t="s">
         <v>56</v>
@@ -3874,7 +3874,7 @@
         <v>56</v>
       </c>
       <c r="AG24">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AH24" t="s">
         <v>56</v>
@@ -3898,7 +3898,7 @@
         <v>64</v>
       </c>
       <c r="AR24">
-        <v>220249</v>
+        <v>149711</v>
       </c>
       <c r="AU24" t="s">
         <v>56</v>
@@ -4052,10 +4052,10 @@
         <v>68</v>
       </c>
       <c r="G26">
-        <v>37.14</v>
+        <v>13.11</v>
       </c>
       <c r="H26">
-        <v>37.14</v>
+        <v>13.11</v>
       </c>
       <c r="I26" t="s">
         <v>55</v>
@@ -4091,7 +4091,7 @@
         <v>56</v>
       </c>
       <c r="AA26">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB26" t="s">
         <v>56</v>
@@ -4106,7 +4106,7 @@
         <v>56</v>
       </c>
       <c r="AG26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="s">
         <v>56</v>
@@ -4130,7 +4130,7 @@
         <v>64</v>
       </c>
       <c r="AR26">
-        <v>149711</v>
+        <v>253820</v>
       </c>
       <c r="AU26" t="s">
         <v>56</v>
@@ -4168,10 +4168,10 @@
         <v>68</v>
       </c>
       <c r="G27">
-        <v>1.74</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="H27">
-        <v>1.74</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="I27" t="s">
         <v>55</v>
@@ -4207,7 +4207,7 @@
         <v>56</v>
       </c>
       <c r="AA27">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AB27" t="s">
         <v>56</v>
@@ -4222,7 +4222,7 @@
         <v>56</v>
       </c>
       <c r="AG27">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="s">
         <v>56</v>
@@ -4246,7 +4246,7 @@
         <v>64</v>
       </c>
       <c r="AR27">
-        <v>264921</v>
+        <v>220249</v>
       </c>
       <c r="AU27" t="s">
         <v>56</v>
@@ -4980,10 +4980,10 @@
         <v>68</v>
       </c>
       <c r="G34">
-        <v>8.7200000000000006</v>
+        <v>15.27</v>
       </c>
       <c r="H34">
-        <v>8.7200000000000006</v>
+        <v>15.27</v>
       </c>
       <c r="I34" t="s">
         <v>55</v>
@@ -5019,7 +5019,7 @@
         <v>56</v>
       </c>
       <c r="AA34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB34" t="s">
         <v>56</v>
@@ -5034,7 +5034,7 @@
         <v>56</v>
       </c>
       <c r="AG34">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s">
         <v>56</v>
@@ -5058,7 +5058,7 @@
         <v>64</v>
       </c>
       <c r="AR34">
-        <v>220249</v>
+        <v>79293</v>
       </c>
       <c r="AU34" t="s">
         <v>56</v>
@@ -5096,10 +5096,10 @@
         <v>68</v>
       </c>
       <c r="G35">
-        <v>15.27</v>
+        <v>1.74</v>
       </c>
       <c r="H35">
-        <v>15.27</v>
+        <v>1.74</v>
       </c>
       <c r="I35" t="s">
         <v>55</v>
@@ -5135,7 +5135,7 @@
         <v>56</v>
       </c>
       <c r="AA35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB35" t="s">
         <v>56</v>
@@ -5150,7 +5150,7 @@
         <v>56</v>
       </c>
       <c r="AG35">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="AH35" t="s">
         <v>56</v>
@@ -5174,7 +5174,7 @@
         <v>64</v>
       </c>
       <c r="AR35">
-        <v>79293</v>
+        <v>264921</v>
       </c>
       <c r="AU35" t="s">
         <v>56</v>
@@ -5212,10 +5212,10 @@
         <v>68</v>
       </c>
       <c r="G36">
-        <v>1.74</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="H36">
-        <v>1.74</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="I36" t="s">
         <v>55</v>
@@ -5251,7 +5251,7 @@
         <v>56</v>
       </c>
       <c r="AA36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB36" t="s">
         <v>56</v>
@@ -5266,7 +5266,7 @@
         <v>56</v>
       </c>
       <c r="AG36">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AH36" t="s">
         <v>56</v>
@@ -5290,7 +5290,7 @@
         <v>64</v>
       </c>
       <c r="AR36">
-        <v>264921</v>
+        <v>220249</v>
       </c>
       <c r="AU36" t="s">
         <v>56</v>
@@ -5328,10 +5328,10 @@
         <v>68</v>
       </c>
       <c r="G37">
-        <v>8.7200000000000006</v>
+        <v>15.27</v>
       </c>
       <c r="H37">
-        <v>8.7200000000000006</v>
+        <v>15.27</v>
       </c>
       <c r="I37" t="s">
         <v>55</v>
@@ -5367,7 +5367,7 @@
         <v>56</v>
       </c>
       <c r="AA37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB37" t="s">
         <v>56</v>
@@ -5382,7 +5382,7 @@
         <v>56</v>
       </c>
       <c r="AG37">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="AH37" t="s">
         <v>56</v>
@@ -5406,7 +5406,7 @@
         <v>64</v>
       </c>
       <c r="AR37">
-        <v>220249</v>
+        <v>79293</v>
       </c>
       <c r="AU37" t="s">
         <v>56</v>
@@ -5444,10 +5444,10 @@
         <v>68</v>
       </c>
       <c r="G38">
-        <v>15.27</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="H38">
-        <v>15.27</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="I38" t="s">
         <v>55</v>
@@ -5483,7 +5483,7 @@
         <v>56</v>
       </c>
       <c r="AA38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB38" t="s">
         <v>56</v>
@@ -5498,7 +5498,7 @@
         <v>56</v>
       </c>
       <c r="AG38">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="AH38" t="s">
         <v>56</v>
@@ -5522,7 +5522,7 @@
         <v>64</v>
       </c>
       <c r="AR38">
-        <v>79293</v>
+        <v>220249</v>
       </c>
       <c r="AU38" t="s">
         <v>56</v>
@@ -6256,10 +6256,10 @@
         <v>68</v>
       </c>
       <c r="G45">
-        <v>16.989999999999998</v>
+        <v>39.32</v>
       </c>
       <c r="H45">
-        <v>16.989999999999998</v>
+        <v>39.32</v>
       </c>
       <c r="I45" t="s">
         <v>55</v>
@@ -6295,7 +6295,7 @@
         <v>56</v>
       </c>
       <c r="AA45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB45" t="s">
         <v>56</v>
@@ -6310,7 +6310,7 @@
         <v>56</v>
       </c>
       <c r="AG45">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="AH45" t="s">
         <v>56</v>
@@ -6334,7 +6334,7 @@
         <v>64</v>
       </c>
       <c r="AR45">
-        <v>220249</v>
+        <v>253820</v>
       </c>
       <c r="AU45" t="s">
         <v>56</v>
@@ -6372,10 +6372,10 @@
         <v>68</v>
       </c>
       <c r="G46">
-        <v>30.55</v>
+        <v>37.14</v>
       </c>
       <c r="H46">
-        <v>30.55</v>
+        <v>37.14</v>
       </c>
       <c r="I46" t="s">
         <v>55</v>
@@ -6411,7 +6411,7 @@
         <v>56</v>
       </c>
       <c r="AA46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB46" t="s">
         <v>56</v>
@@ -6426,7 +6426,7 @@
         <v>56</v>
       </c>
       <c r="AG46">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="AH46" t="s">
         <v>56</v>
@@ -6450,7 +6450,7 @@
         <v>64</v>
       </c>
       <c r="AR46">
-        <v>79293</v>
+        <v>149711</v>
       </c>
       <c r="AU46" t="s">
         <v>56</v>
@@ -6488,10 +6488,10 @@
         <v>68</v>
       </c>
       <c r="G47">
-        <v>37.14</v>
+        <v>30.55</v>
       </c>
       <c r="H47">
-        <v>37.14</v>
+        <v>30.55</v>
       </c>
       <c r="I47" t="s">
         <v>55</v>
@@ -6527,7 +6527,7 @@
         <v>56</v>
       </c>
       <c r="AA47">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB47" t="s">
         <v>56</v>
@@ -6542,7 +6542,7 @@
         <v>56</v>
       </c>
       <c r="AG47">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="AH47" t="s">
         <v>56</v>
@@ -6566,7 +6566,7 @@
         <v>64</v>
       </c>
       <c r="AR47">
-        <v>149711</v>
+        <v>79293</v>
       </c>
       <c r="AU47" t="s">
         <v>56</v>
@@ -6604,10 +6604,10 @@
         <v>68</v>
       </c>
       <c r="G48">
-        <v>39.32</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="H48">
-        <v>39.32</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="I48" t="s">
         <v>55</v>
@@ -6643,7 +6643,7 @@
         <v>56</v>
       </c>
       <c r="AA48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB48" t="s">
         <v>56</v>
@@ -6658,7 +6658,7 @@
         <v>56</v>
       </c>
       <c r="AG48">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AH48" t="s">
         <v>56</v>
@@ -6682,7 +6682,7 @@
         <v>64</v>
       </c>
       <c r="AR48">
-        <v>253820</v>
+        <v>220249</v>
       </c>
       <c r="AU48" t="s">
         <v>56</v>
@@ -7416,10 +7416,10 @@
         <v>68</v>
       </c>
       <c r="G55">
-        <v>26.22</v>
+        <v>30.55</v>
       </c>
       <c r="H55">
-        <v>26.22</v>
+        <v>30.55</v>
       </c>
       <c r="I55" t="s">
         <v>55</v>
@@ -7455,7 +7455,7 @@
         <v>56</v>
       </c>
       <c r="AA55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB55" t="s">
         <v>56</v>
@@ -7470,7 +7470,7 @@
         <v>56</v>
       </c>
       <c r="AG55">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="AH55" t="s">
         <v>56</v>
@@ -7494,7 +7494,7 @@
         <v>64</v>
       </c>
       <c r="AR55">
-        <v>253820</v>
+        <v>79293</v>
       </c>
       <c r="AU55" t="s">
         <v>56</v>
@@ -7648,10 +7648,10 @@
         <v>68</v>
       </c>
       <c r="G57">
-        <v>30.55</v>
+        <v>26.22</v>
       </c>
       <c r="H57">
-        <v>30.55</v>
+        <v>26.22</v>
       </c>
       <c r="I57" t="s">
         <v>55</v>
@@ -7687,7 +7687,7 @@
         <v>56</v>
       </c>
       <c r="AA57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB57" t="s">
         <v>56</v>
@@ -7702,7 +7702,7 @@
         <v>56</v>
       </c>
       <c r="AG57">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s">
         <v>56</v>
@@ -7726,7 +7726,7 @@
         <v>64</v>
       </c>
       <c r="AR57">
-        <v>79293</v>
+        <v>253820</v>
       </c>
       <c r="AU57" t="s">
         <v>56</v>
@@ -9253,49 +9253,2137 @@
       </c>
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71">
+        <v>24001233</v>
+      </c>
+      <c r="D71">
+        <v>1206</v>
+      </c>
+      <c r="E71" s="1">
+        <v>45348</v>
+      </c>
       <c r="F71" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G71">
-        <v>676.87</v>
+        <v>3.48</v>
       </c>
       <c r="H71">
-        <v>676.87</v>
-      </c>
-      <c r="AG71" s="2">
-        <v>1951</v>
+        <v>3.48</v>
+      </c>
+      <c r="I71" t="s">
+        <v>55</v>
+      </c>
+      <c r="O71" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>56</v>
+      </c>
+      <c r="R71" t="s">
+        <v>57</v>
+      </c>
+      <c r="T71" t="s">
+        <v>58</v>
+      </c>
+      <c r="U71" t="s">
+        <v>59</v>
+      </c>
+      <c r="V71" t="s">
+        <v>60</v>
+      </c>
+      <c r="W71" t="s">
+        <v>61</v>
+      </c>
+      <c r="X71">
+        <v>2105999</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA71">
+        <v>2</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG71">
+        <v>2</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM71" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP71">
+        <v>1206</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR71">
+        <v>276660</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY71">
+        <v>631180</v>
+      </c>
+      <c r="AZ71">
+        <v>1206.6311800000001</v>
       </c>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72">
+        <v>24001236</v>
+      </c>
+      <c r="D72">
+        <v>1206</v>
+      </c>
+      <c r="E72" s="1">
+        <v>45348</v>
+      </c>
       <c r="F72" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G72">
-        <v>676.87</v>
+        <v>15.27</v>
       </c>
       <c r="H72">
-        <v>676.87</v>
-      </c>
-      <c r="AG72" s="2">
-        <v>1951</v>
+        <v>15.27</v>
+      </c>
+      <c r="I72" t="s">
+        <v>55</v>
+      </c>
+      <c r="O72" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>56</v>
+      </c>
+      <c r="R72" t="s">
+        <v>57</v>
+      </c>
+      <c r="T72" t="s">
+        <v>58</v>
+      </c>
+      <c r="U72" t="s">
+        <v>59</v>
+      </c>
+      <c r="V72" t="s">
+        <v>60</v>
+      </c>
+      <c r="W72" t="s">
+        <v>61</v>
+      </c>
+      <c r="X72">
+        <v>2106001</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA72">
+        <v>4</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG72">
+        <v>90</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM72" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP72">
+        <v>1206</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR72">
+        <v>79293</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY72">
+        <v>631180</v>
+      </c>
+      <c r="AZ72">
+        <v>1206.6311800000001</v>
       </c>
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73">
+        <v>24001236</v>
+      </c>
+      <c r="D73">
+        <v>1206</v>
+      </c>
+      <c r="E73" s="1">
+        <v>45348</v>
+      </c>
       <c r="F73" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G73">
-        <v>676.87</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="H73">
-        <v>676.87</v>
-      </c>
-      <c r="AG73" s="2">
-        <v>1951</v>
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I73" t="s">
+        <v>55</v>
+      </c>
+      <c r="O73" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>56</v>
+      </c>
+      <c r="R73" t="s">
+        <v>57</v>
+      </c>
+      <c r="T73" t="s">
+        <v>58</v>
+      </c>
+      <c r="U73" t="s">
+        <v>59</v>
+      </c>
+      <c r="V73" t="s">
+        <v>60</v>
+      </c>
+      <c r="W73" t="s">
+        <v>61</v>
+      </c>
+      <c r="X73">
+        <v>2106001</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA73">
+        <v>2</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG73">
+        <v>19</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP73">
+        <v>1206</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR73">
+        <v>220249</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY73">
+        <v>631180</v>
+      </c>
+      <c r="AZ73">
+        <v>1206.6311800000001</v>
       </c>
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74">
+        <v>24001239</v>
+      </c>
+      <c r="D74">
+        <v>1206</v>
+      </c>
+      <c r="E74" s="1">
+        <v>45348</v>
+      </c>
       <c r="F74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G74">
+        <v>0.92</v>
+      </c>
+      <c r="H74">
+        <v>0.92</v>
+      </c>
+      <c r="I74" t="s">
+        <v>55</v>
+      </c>
+      <c r="O74" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>56</v>
+      </c>
+      <c r="R74" t="s">
+        <v>57</v>
+      </c>
+      <c r="T74" t="s">
+        <v>58</v>
+      </c>
+      <c r="U74" t="s">
+        <v>59</v>
+      </c>
+      <c r="V74" t="s">
+        <v>60</v>
+      </c>
+      <c r="W74" t="s">
+        <v>61</v>
+      </c>
+      <c r="X74">
+        <v>2106004</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA74">
+        <v>2</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG74">
+        <v>3</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM74" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP74">
+        <v>1206</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR74">
+        <v>76741</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY74">
+        <v>631180</v>
+      </c>
+      <c r="AZ74">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75">
+        <v>24001240</v>
+      </c>
+      <c r="D75">
+        <v>1206</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45348</v>
+      </c>
+      <c r="F75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75">
+        <v>0.78</v>
+      </c>
+      <c r="H75">
+        <v>0.78</v>
+      </c>
+      <c r="I75" t="s">
+        <v>55</v>
+      </c>
+      <c r="O75" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>56</v>
+      </c>
+      <c r="R75" t="s">
+        <v>57</v>
+      </c>
+      <c r="T75" t="s">
+        <v>58</v>
+      </c>
+      <c r="U75" t="s">
+        <v>59</v>
+      </c>
+      <c r="V75" t="s">
+        <v>60</v>
+      </c>
+      <c r="W75" t="s">
+        <v>61</v>
+      </c>
+      <c r="X75">
+        <v>2106005</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA75">
+        <v>2</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG75">
+        <v>5</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM75" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP75">
+        <v>1206</v>
+      </c>
+      <c r="AQ75" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR75">
+        <v>79248</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY75">
+        <v>631180</v>
+      </c>
+      <c r="AZ75">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76">
+        <v>24001237</v>
+      </c>
+      <c r="D76">
+        <v>1206</v>
+      </c>
+      <c r="E76" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F76" t="s">
+        <v>68</v>
+      </c>
+      <c r="G76">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="H76">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I76" t="s">
+        <v>55</v>
+      </c>
+      <c r="O76" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>56</v>
+      </c>
+      <c r="R76" t="s">
+        <v>57</v>
+      </c>
+      <c r="T76" t="s">
+        <v>58</v>
+      </c>
+      <c r="U76" t="s">
+        <v>59</v>
+      </c>
+      <c r="V76" t="s">
+        <v>60</v>
+      </c>
+      <c r="W76" t="s">
+        <v>61</v>
+      </c>
+      <c r="X76">
+        <v>2106002</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA76">
+        <v>4</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG76">
+        <v>19</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM76" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP76">
+        <v>1206</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR76">
+        <v>220249</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY76">
+        <v>631180</v>
+      </c>
+      <c r="AZ76">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77">
+        <v>24001237</v>
+      </c>
+      <c r="D77">
+        <v>1206</v>
+      </c>
+      <c r="E77" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F77" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77">
+        <v>11.86</v>
+      </c>
+      <c r="H77">
+        <v>11.86</v>
+      </c>
+      <c r="I77" t="s">
+        <v>55</v>
+      </c>
+      <c r="O77" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>56</v>
+      </c>
+      <c r="R77" t="s">
+        <v>57</v>
+      </c>
+      <c r="T77" t="s">
+        <v>58</v>
+      </c>
+      <c r="U77" t="s">
+        <v>59</v>
+      </c>
+      <c r="V77" t="s">
+        <v>60</v>
+      </c>
+      <c r="W77" t="s">
+        <v>61</v>
+      </c>
+      <c r="X77">
+        <v>2106002</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA77">
+        <v>2</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG77">
+        <v>19</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM77" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP77">
+        <v>1206</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR77">
+        <v>253820</v>
+      </c>
+      <c r="AU77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY77">
+        <v>631180</v>
+      </c>
+      <c r="AZ77">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78">
+        <v>24001237</v>
+      </c>
+      <c r="D78">
+        <v>1206</v>
+      </c>
+      <c r="E78" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78">
+        <v>15.27</v>
+      </c>
+      <c r="H78">
+        <v>15.27</v>
+      </c>
+      <c r="I78" t="s">
+        <v>55</v>
+      </c>
+      <c r="O78" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>56</v>
+      </c>
+      <c r="R78" t="s">
+        <v>57</v>
+      </c>
+      <c r="T78" t="s">
+        <v>58</v>
+      </c>
+      <c r="U78" t="s">
+        <v>59</v>
+      </c>
+      <c r="V78" t="s">
+        <v>60</v>
+      </c>
+      <c r="W78" t="s">
+        <v>61</v>
+      </c>
+      <c r="X78">
+        <v>2106002</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA78">
+        <v>6</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG78">
+        <v>90</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM78" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP78">
+        <v>1206</v>
+      </c>
+      <c r="AQ78" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR78">
+        <v>79293</v>
+      </c>
+      <c r="AU78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV78" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY78">
+        <v>631180</v>
+      </c>
+      <c r="AZ78">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79">
+        <v>24001237</v>
+      </c>
+      <c r="D79">
+        <v>1206</v>
+      </c>
+      <c r="E79" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F79" t="s">
+        <v>68</v>
+      </c>
+      <c r="G79">
+        <v>37.14</v>
+      </c>
+      <c r="H79">
+        <v>37.14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>55</v>
+      </c>
+      <c r="O79" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>56</v>
+      </c>
+      <c r="R79" t="s">
+        <v>57</v>
+      </c>
+      <c r="T79" t="s">
+        <v>58</v>
+      </c>
+      <c r="U79" t="s">
+        <v>59</v>
+      </c>
+      <c r="V79" t="s">
+        <v>60</v>
+      </c>
+      <c r="W79" t="s">
+        <v>61</v>
+      </c>
+      <c r="X79">
+        <v>2106002</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA79">
+        <v>8</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG79">
+        <v>25</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM79" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN79" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP79">
+        <v>1206</v>
+      </c>
+      <c r="AQ79" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR79">
+        <v>149711</v>
+      </c>
+      <c r="AU79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY79">
+        <v>631180</v>
+      </c>
+      <c r="AZ79">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80">
+        <v>24001241</v>
+      </c>
+      <c r="D80">
+        <v>1206</v>
+      </c>
+      <c r="E80" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F80" t="s">
+        <v>66</v>
+      </c>
+      <c r="G80">
+        <v>0.92</v>
+      </c>
+      <c r="H80">
+        <v>0.92</v>
+      </c>
+      <c r="I80" t="s">
+        <v>55</v>
+      </c>
+      <c r="O80" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>56</v>
+      </c>
+      <c r="R80" t="s">
+        <v>57</v>
+      </c>
+      <c r="T80" t="s">
+        <v>58</v>
+      </c>
+      <c r="U80" t="s">
+        <v>59</v>
+      </c>
+      <c r="V80" t="s">
+        <v>60</v>
+      </c>
+      <c r="W80" t="s">
+        <v>61</v>
+      </c>
+      <c r="X80">
+        <v>2106006</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA80">
+        <v>2</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG80">
+        <v>3</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM80" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN80" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO80" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP80">
+        <v>1206</v>
+      </c>
+      <c r="AQ80" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR80">
+        <v>76741</v>
+      </c>
+      <c r="AU80" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV80" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX80" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY80">
+        <v>631180</v>
+      </c>
+      <c r="AZ80">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81">
+        <v>24001242</v>
+      </c>
+      <c r="D81">
+        <v>1206</v>
+      </c>
+      <c r="E81" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F81" t="s">
+        <v>67</v>
+      </c>
+      <c r="G81">
+        <v>0.78</v>
+      </c>
+      <c r="H81">
+        <v>0.78</v>
+      </c>
+      <c r="I81" t="s">
+        <v>55</v>
+      </c>
+      <c r="O81" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>56</v>
+      </c>
+      <c r="R81" t="s">
+        <v>57</v>
+      </c>
+      <c r="T81" t="s">
+        <v>58</v>
+      </c>
+      <c r="U81" t="s">
+        <v>59</v>
+      </c>
+      <c r="V81" t="s">
+        <v>60</v>
+      </c>
+      <c r="W81" t="s">
+        <v>61</v>
+      </c>
+      <c r="X81">
+        <v>2106007</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA81">
+        <v>2</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG81">
+        <v>5</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM81" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN81" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP81">
+        <v>1206</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR81">
+        <v>79248</v>
+      </c>
+      <c r="AU81" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV81" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX81" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY81">
+        <v>631180</v>
+      </c>
+      <c r="AZ81">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82">
+        <v>24001238</v>
+      </c>
+      <c r="D82">
+        <v>1206</v>
+      </c>
+      <c r="E82" s="1">
+        <v>45350</v>
+      </c>
+      <c r="F82" t="s">
+        <v>68</v>
+      </c>
+      <c r="G82">
+        <v>11.86</v>
+      </c>
+      <c r="H82">
+        <v>11.86</v>
+      </c>
+      <c r="I82" t="s">
+        <v>55</v>
+      </c>
+      <c r="O82" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>56</v>
+      </c>
+      <c r="R82" t="s">
+        <v>57</v>
+      </c>
+      <c r="T82" t="s">
+        <v>58</v>
+      </c>
+      <c r="U82" t="s">
+        <v>59</v>
+      </c>
+      <c r="V82" t="s">
+        <v>60</v>
+      </c>
+      <c r="W82" t="s">
+        <v>61</v>
+      </c>
+      <c r="X82">
+        <v>2106003</v>
+      </c>
+      <c r="Y82" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA82">
+        <v>2</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG82">
+        <v>19</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM82" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP82">
+        <v>1206</v>
+      </c>
+      <c r="AQ82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR82">
+        <v>253820</v>
+      </c>
+      <c r="AU82" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV82" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX82" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY82">
+        <v>631180</v>
+      </c>
+      <c r="AZ82">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83">
+        <v>24001238</v>
+      </c>
+      <c r="D83">
+        <v>1206</v>
+      </c>
+      <c r="E83" s="1">
+        <v>45350</v>
+      </c>
+      <c r="F83" t="s">
+        <v>68</v>
+      </c>
+      <c r="G83">
+        <v>15.27</v>
+      </c>
+      <c r="H83">
+        <v>15.27</v>
+      </c>
+      <c r="I83" t="s">
+        <v>55</v>
+      </c>
+      <c r="O83" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>56</v>
+      </c>
+      <c r="R83" t="s">
+        <v>57</v>
+      </c>
+      <c r="T83" t="s">
+        <v>58</v>
+      </c>
+      <c r="U83" t="s">
+        <v>59</v>
+      </c>
+      <c r="V83" t="s">
+        <v>60</v>
+      </c>
+      <c r="W83" t="s">
+        <v>61</v>
+      </c>
+      <c r="X83">
+        <v>2106003</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA83">
+        <v>8</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG83">
+        <v>90</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM83" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP83">
+        <v>1206</v>
+      </c>
+      <c r="AQ83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR83">
+        <v>79293</v>
+      </c>
+      <c r="AU83" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV83" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX83" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY83">
+        <v>631180</v>
+      </c>
+      <c r="AZ83">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84">
+        <v>24001238</v>
+      </c>
+      <c r="D84">
+        <v>1206</v>
+      </c>
+      <c r="E84" s="1">
+        <v>45350</v>
+      </c>
+      <c r="F84" t="s">
+        <v>68</v>
+      </c>
+      <c r="G84">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="H84">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I84" t="s">
+        <v>55</v>
+      </c>
+      <c r="O84" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>56</v>
+      </c>
+      <c r="R84" t="s">
+        <v>57</v>
+      </c>
+      <c r="T84" t="s">
+        <v>58</v>
+      </c>
+      <c r="U84" t="s">
+        <v>59</v>
+      </c>
+      <c r="V84" t="s">
+        <v>60</v>
+      </c>
+      <c r="W84" t="s">
+        <v>61</v>
+      </c>
+      <c r="X84">
+        <v>2106003</v>
+      </c>
+      <c r="Y84" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA84">
+        <v>6</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG84">
+        <v>19</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM84" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP84">
+        <v>1206</v>
+      </c>
+      <c r="AQ84" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR84">
+        <v>220249</v>
+      </c>
+      <c r="AU84" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV84" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX84" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY84">
+        <v>631180</v>
+      </c>
+      <c r="AZ84">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85">
+        <v>24001238</v>
+      </c>
+      <c r="D85">
+        <v>1206</v>
+      </c>
+      <c r="E85" s="1">
+        <v>45350</v>
+      </c>
+      <c r="F85" t="s">
+        <v>68</v>
+      </c>
+      <c r="G85">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="H85">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I85" t="s">
+        <v>55</v>
+      </c>
+      <c r="O85" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>56</v>
+      </c>
+      <c r="R85" t="s">
+        <v>57</v>
+      </c>
+      <c r="T85" t="s">
+        <v>58</v>
+      </c>
+      <c r="U85" t="s">
+        <v>59</v>
+      </c>
+      <c r="V85" t="s">
+        <v>60</v>
+      </c>
+      <c r="W85" t="s">
+        <v>61</v>
+      </c>
+      <c r="X85">
+        <v>2106003</v>
+      </c>
+      <c r="Y85" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA85">
+        <v>4</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG85">
+        <v>19</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM85" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN85" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO85" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP85">
+        <v>1206</v>
+      </c>
+      <c r="AQ85" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR85">
+        <v>220249</v>
+      </c>
+      <c r="AU85" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV85" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX85" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY85">
+        <v>631180</v>
+      </c>
+      <c r="AZ85">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86">
+        <v>24001243</v>
+      </c>
+      <c r="D86">
+        <v>1206</v>
+      </c>
+      <c r="E86" s="1">
+        <v>45350</v>
+      </c>
+      <c r="F86" t="s">
+        <v>66</v>
+      </c>
+      <c r="G86">
+        <v>0.92</v>
+      </c>
+      <c r="H86">
+        <v>0.92</v>
+      </c>
+      <c r="I86" t="s">
+        <v>55</v>
+      </c>
+      <c r="O86" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>56</v>
+      </c>
+      <c r="R86" t="s">
+        <v>57</v>
+      </c>
+      <c r="T86" t="s">
+        <v>58</v>
+      </c>
+      <c r="U86" t="s">
+        <v>59</v>
+      </c>
+      <c r="V86" t="s">
+        <v>60</v>
+      </c>
+      <c r="W86" t="s">
+        <v>61</v>
+      </c>
+      <c r="X86">
+        <v>2106008</v>
+      </c>
+      <c r="Y86" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA86">
+        <v>2</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG86">
+        <v>3</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM86" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN86" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP86">
+        <v>1206</v>
+      </c>
+      <c r="AQ86" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR86">
+        <v>76741</v>
+      </c>
+      <c r="AU86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV86" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY86">
+        <v>631180</v>
+      </c>
+      <c r="AZ86">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87">
+        <v>24001244</v>
+      </c>
+      <c r="D87">
+        <v>1206</v>
+      </c>
+      <c r="E87" s="1">
+        <v>45350</v>
+      </c>
+      <c r="F87" t="s">
+        <v>67</v>
+      </c>
+      <c r="G87">
+        <v>0.78</v>
+      </c>
+      <c r="H87">
+        <v>0.78</v>
+      </c>
+      <c r="I87" t="s">
+        <v>55</v>
+      </c>
+      <c r="O87" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>56</v>
+      </c>
+      <c r="R87" t="s">
+        <v>57</v>
+      </c>
+      <c r="T87" t="s">
+        <v>58</v>
+      </c>
+      <c r="U87" t="s">
+        <v>59</v>
+      </c>
+      <c r="V87" t="s">
+        <v>60</v>
+      </c>
+      <c r="W87" t="s">
+        <v>61</v>
+      </c>
+      <c r="X87">
+        <v>2106009</v>
+      </c>
+      <c r="Y87" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA87">
+        <v>2</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG87">
+        <v>5</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM87" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN87" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO87" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP87">
+        <v>1206</v>
+      </c>
+      <c r="AQ87" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR87">
+        <v>79248</v>
+      </c>
+      <c r="AU87" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV87" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX87" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY87">
+        <v>631180</v>
+      </c>
+      <c r="AZ87">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88">
+        <v>24001245</v>
+      </c>
+      <c r="D88">
+        <v>1206</v>
+      </c>
+      <c r="E88" s="1">
+        <v>45350</v>
+      </c>
+      <c r="F88" t="s">
+        <v>69</v>
+      </c>
+      <c r="G88">
+        <v>2.38</v>
+      </c>
+      <c r="H88">
+        <v>2.38</v>
+      </c>
+      <c r="I88" t="s">
+        <v>55</v>
+      </c>
+      <c r="O88" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>56</v>
+      </c>
+      <c r="R88" t="s">
+        <v>57</v>
+      </c>
+      <c r="T88" t="s">
+        <v>58</v>
+      </c>
+      <c r="U88" t="s">
+        <v>59</v>
+      </c>
+      <c r="V88" t="s">
+        <v>60</v>
+      </c>
+      <c r="W88" t="s">
+        <v>61</v>
+      </c>
+      <c r="X88">
+        <v>2106010</v>
+      </c>
+      <c r="Y88" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA88">
+        <v>2</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG88">
+        <v>6</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM88" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN88" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP88">
+        <v>1206</v>
+      </c>
+      <c r="AQ88" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR88">
+        <v>79280</v>
+      </c>
+      <c r="AU88" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV88" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX88" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY88">
+        <v>631180</v>
+      </c>
+      <c r="AZ88">
+        <v>1206.6311800000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>70</v>
+      </c>
+      <c r="G89">
+        <v>829.38</v>
+      </c>
+      <c r="H89">
+        <v>829.38</v>
+      </c>
+      <c r="AG89" s="2">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>71</v>
+      </c>
+      <c r="G90">
+        <v>829.38</v>
+      </c>
+      <c r="H90">
+        <v>829.38</v>
+      </c>
+      <c r="AG90" s="2">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>72</v>
+      </c>
+      <c r="G91">
+        <v>829.38</v>
+      </c>
+      <c r="H91">
+        <v>829.38</v>
+      </c>
+      <c r="AG91" s="2">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
         <v>73</v>
       </c>
     </row>
